--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H2">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I2">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J2">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>1107.272015292924</v>
+        <v>1391.953543768597</v>
       </c>
       <c r="R2">
-        <v>1107.272015292924</v>
+        <v>12527.58189391738</v>
       </c>
       <c r="S2">
-        <v>0.01511297049650272</v>
+        <v>0.01717091097368093</v>
       </c>
       <c r="T2">
-        <v>0.01511297049650272</v>
+        <v>0.01987728835475991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H3">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I3">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J3">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1240.10811955906</v>
+        <v>1489.59078495656</v>
       </c>
       <c r="R3">
-        <v>1240.10811955906</v>
+        <v>13406.31706460904</v>
       </c>
       <c r="S3">
-        <v>0.01692602826091609</v>
+        <v>0.01837534799218607</v>
       </c>
       <c r="T3">
-        <v>0.01692602826091609</v>
+        <v>0.02127156160902521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H4">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I4">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J4">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>638.0020949714519</v>
+        <v>747.9721968408213</v>
       </c>
       <c r="R4">
-        <v>638.0020949714519</v>
+        <v>6731.749771567392</v>
       </c>
       <c r="S4">
-        <v>0.008707983860189677</v>
+        <v>0.009226862534485137</v>
       </c>
       <c r="T4">
-        <v>0.008707983860189677</v>
+        <v>0.01068114600843308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H5">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I5">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J5">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>759.0430855814459</v>
+        <v>854.5631530180508</v>
       </c>
       <c r="R5">
-        <v>759.0430855814459</v>
+        <v>7691.068377162457</v>
       </c>
       <c r="S5">
-        <v>0.01036005209156494</v>
+        <v>0.01054175111486365</v>
       </c>
       <c r="T5">
-        <v>0.01036005209156494</v>
+        <v>0.01220327954617175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H6">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I6">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J6">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1497.777359640426</v>
+        <v>1704.515851537356</v>
       </c>
       <c r="R6">
-        <v>1497.777359640426</v>
+        <v>10227.09510922414</v>
       </c>
       <c r="S6">
-        <v>0.02044291261220693</v>
+        <v>0.02102662841802535</v>
       </c>
       <c r="T6">
-        <v>0.02044291261220693</v>
+        <v>0.01622714744465622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H7">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J7">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>4828.890845259854</v>
+        <v>5825.918321240045</v>
       </c>
       <c r="R7">
-        <v>4828.890845259854</v>
+        <v>52433.2648911604</v>
       </c>
       <c r="S7">
-        <v>0.0659087233013272</v>
+        <v>0.07186757437544179</v>
       </c>
       <c r="T7">
-        <v>0.0659087233013272</v>
+        <v>0.08319491618164136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H8">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J8">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>5408.198403792376</v>
+        <v>6234.571752828166</v>
       </c>
       <c r="R8">
-        <v>5408.198403792376</v>
+        <v>56111.1457754535</v>
       </c>
       <c r="S8">
-        <v>0.07381559525291978</v>
+        <v>0.07690865618761998</v>
       </c>
       <c r="T8">
-        <v>0.07381559525291978</v>
+        <v>0.08903054347912077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H9">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J9">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>2782.371840987265</v>
+        <v>3130.582155461311</v>
       </c>
       <c r="R9">
-        <v>2782.371840987265</v>
+        <v>28175.2393991518</v>
       </c>
       <c r="S9">
-        <v>0.03797612778285232</v>
+        <v>0.03861834881477676</v>
       </c>
       <c r="T9">
-        <v>0.03797612778285232</v>
+        <v>0.04470514443599503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H10">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J10">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>3310.240082381552</v>
+        <v>3576.710697072073</v>
       </c>
       <c r="R10">
-        <v>3310.240082381552</v>
+        <v>32190.39627364866</v>
       </c>
       <c r="S10">
-        <v>0.04518091310032662</v>
+        <v>0.04412171744737962</v>
       </c>
       <c r="T10">
-        <v>0.04518091310032662</v>
+        <v>0.05107592146701341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H11">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J11">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>6531.912014674887</v>
+        <v>7134.124678780526</v>
       </c>
       <c r="R11">
-        <v>6531.912014674887</v>
+        <v>42804.74807268316</v>
       </c>
       <c r="S11">
-        <v>0.08915297433704054</v>
+        <v>0.08800539377400739</v>
       </c>
       <c r="T11">
-        <v>0.08915297433704054</v>
+        <v>0.06791752212026593</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H12">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I12">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J12">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>3195.956996251527</v>
+        <v>3723.760792622589</v>
       </c>
       <c r="R12">
-        <v>3195.956996251527</v>
+        <v>33513.8471336033</v>
       </c>
       <c r="S12">
-        <v>0.04362108237663996</v>
+        <v>0.04593570334559646</v>
       </c>
       <c r="T12">
-        <v>0.04362108237663996</v>
+        <v>0.05317581708848577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H13">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I13">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J13">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>3579.366376169653</v>
+        <v>3984.960408272989</v>
       </c>
       <c r="R13">
-        <v>3579.366376169653</v>
+        <v>35864.64367445691</v>
       </c>
       <c r="S13">
-        <v>0.04885417286096162</v>
+        <v>0.04915781903097331</v>
       </c>
       <c r="T13">
-        <v>0.04885417286096162</v>
+        <v>0.0569057835817487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H14">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I14">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J14">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>1841.487214420141</v>
+        <v>2000.978806395185</v>
       </c>
       <c r="R14">
-        <v>1841.487214420141</v>
+        <v>18008.80925755667</v>
       </c>
       <c r="S14">
-        <v>0.02513415091941629</v>
+        <v>0.02468374688124357</v>
       </c>
       <c r="T14">
-        <v>0.02513415091941629</v>
+        <v>0.02857425300186063</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H15">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I15">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J15">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>2190.851955360413</v>
+        <v>2286.131443304528</v>
       </c>
       <c r="R15">
-        <v>2190.851955360413</v>
+        <v>20575.18298974075</v>
       </c>
       <c r="S15">
-        <v>0.0299025718218012</v>
+        <v>0.02820134311439391</v>
       </c>
       <c r="T15">
-        <v>0.0299025718218012</v>
+        <v>0.03264627193837007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H16">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I16">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J16">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>4323.085895116405</v>
+        <v>4559.928976633787</v>
       </c>
       <c r="R16">
-        <v>4323.085895116405</v>
+        <v>27359.57385980272</v>
       </c>
       <c r="S16">
-        <v>0.05900507615507404</v>
+        <v>0.05625053713509798</v>
       </c>
       <c r="T16">
-        <v>0.05900507615507404</v>
+        <v>0.0434109426288167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H17">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I17">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J17">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>4114.340878968592</v>
+        <v>4620.759670300385</v>
       </c>
       <c r="R17">
-        <v>4114.340878968592</v>
+        <v>41586.83703270346</v>
       </c>
       <c r="S17">
-        <v>0.05615595035151138</v>
+        <v>0.05700093461071233</v>
       </c>
       <c r="T17">
-        <v>0.05615595035151138</v>
+        <v>0.06598508462856802</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H18">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I18">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J18">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>4607.926020141435</v>
+        <v>4944.87840861636</v>
       </c>
       <c r="R18">
-        <v>4607.926020141435</v>
+        <v>44503.90567754723</v>
       </c>
       <c r="S18">
-        <v>0.06289281136942841</v>
+        <v>0.06099921028983989</v>
       </c>
       <c r="T18">
-        <v>0.06289281136942841</v>
+        <v>0.07061354486097261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H19">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I19">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J19">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>2370.653338975811</v>
+        <v>2482.984994104528</v>
       </c>
       <c r="R19">
-        <v>2370.653338975811</v>
+        <v>22346.86494694075</v>
       </c>
       <c r="S19">
-        <v>0.03235665082703192</v>
+        <v>0.03062969628089995</v>
       </c>
       <c r="T19">
-        <v>0.03235665082703192</v>
+        <v>0.0354573677615224</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H20">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I20">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J20">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>2820.410841034424</v>
+        <v>2836.826682088605</v>
       </c>
       <c r="R20">
-        <v>2820.410841034424</v>
+        <v>25531.44013879744</v>
       </c>
       <c r="S20">
-        <v>0.03849531573079039</v>
+        <v>0.03499462939978974</v>
       </c>
       <c r="T20">
-        <v>0.03849531573079039</v>
+        <v>0.0405102758096977</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H21">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I21">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J21">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>5565.359309412345</v>
+        <v>5658.348397783087</v>
       </c>
       <c r="R21">
-        <v>5565.359309412345</v>
+        <v>33950.09038669852</v>
       </c>
       <c r="S21">
-        <v>0.07596065816161246</v>
+        <v>0.06980045924043819</v>
       </c>
       <c r="T21">
-        <v>0.07596065816161246</v>
+        <v>0.05386799639395911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H22">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I22">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J22">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>2229.050522389167</v>
+        <v>2670.855969904495</v>
       </c>
       <c r="R22">
-        <v>2229.050522389167</v>
+        <v>16025.13581942697</v>
       </c>
       <c r="S22">
-        <v>0.03042393767277642</v>
+        <v>0.03294724187316584</v>
       </c>
       <c r="T22">
-        <v>0.03042393767277642</v>
+        <v>0.02542679411751466</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H23">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I23">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J23">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>2496.463031255149</v>
+        <v>2858.200590476995</v>
       </c>
       <c r="R23">
-        <v>2496.463031255149</v>
+        <v>17149.20354286197</v>
       </c>
       <c r="S23">
-        <v>0.03407380626971573</v>
+        <v>0.03525829443354009</v>
       </c>
       <c r="T23">
-        <v>0.03407380626971573</v>
+        <v>0.02721033211057656</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H24">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I24">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J24">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>1284.362725183908</v>
+        <v>1435.195891556993</v>
       </c>
       <c r="R24">
-        <v>1284.362725183908</v>
+        <v>8611.175349341956</v>
       </c>
       <c r="S24">
-        <v>0.01753005196954902</v>
+        <v>0.01770434149475794</v>
       </c>
       <c r="T24">
-        <v>0.01753005196954902</v>
+        <v>0.01366319669204306</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H25">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I25">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J25">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>1528.030477663259</v>
+        <v>1639.720742920214</v>
       </c>
       <c r="R25">
-        <v>1528.030477663259</v>
+        <v>9838.324457521285</v>
       </c>
       <c r="S25">
-        <v>0.0208558323589282</v>
+        <v>0.0202273265687821</v>
       </c>
       <c r="T25">
-        <v>0.0208558323589282</v>
+        <v>0.0156102920600175</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H26">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I26">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J26">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>3015.177264320131</v>
+        <v>3270.595026864069</v>
       </c>
       <c r="R26">
-        <v>3015.177264320131</v>
+        <v>13082.38010745627</v>
       </c>
       <c r="S26">
-        <v>0.04115365005891623</v>
+        <v>0.04034552466830212</v>
       </c>
       <c r="T26">
-        <v>0.04115365005891623</v>
+        <v>0.02075757667876382</v>
       </c>
     </row>
   </sheetData>
